--- a/biology/Médecine/Liste_d'éponymes_en_pneumologie/Liste_d'éponymes_en_pneumologie.xlsx
+++ b/biology/Médecine/Liste_d'éponymes_en_pneumologie/Liste_d'éponymes_en_pneumologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page dresse la liste des éponymes liés à la pneumologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Baréty (Loge de) : espace prétrachéal droit. – Alexandre Baréty (1844 – 1918)
 Boyden (Classification de) : classification anatomique des bronches
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Campbell (Diagramme de)
 Euler-Liljestrand (Mécanisme de) : Vasoconstriction pulmonaire hypoxique. – Göran Liljestrand (1886 – 1968)
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Sémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anthonisen (Triade de) : Majoration de la dyspnée, du volume des expectorations et de la purulence dans l’exacerbation de BPCO
 Biot (Dyspnée de) : Survenues d’apnées de manière irrégulière, sur fond de cycle ventilatoires anormaux – Camille Biot (1850 – 1918)
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +655,9 @@
           <t>Radiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Damoiseau (Ligne de) : Ligne radiologique retrouvée dans l’épanchement pleural non cloisonné. – Louis-Hyacinthe-Céleste Damoiseau
 Haller (Indice de) : Rapport du diamètre transversal sur le diamètre antéro-postérieur du thorax, mesure de sévérité du pectus excavatum. – J. Alex Haller (1927 – 2018)
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,7 +690,9 @@
           <t>Microbiologie / Anatomopathologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bartlett (Critères de) : Critères de qualité d’un prélèvement pulmonaire à visée bactériologique.
 Bordet-Gengou (Bacille de) : Bordetella Pertussis. – Jules Bordet (1870-1961) / Octave Gengou (1875 – 1957)
@@ -692,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,7 +732,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Besnier-Boeck-Schaumann (Maladie de) : Sarcoïdose – Ernest Besnier (1831-1909) / Cæsar Boeck (1845 – 1917) / Jörgen Nilsen Schaumann (1879-1953)
 Birt-Hogg-Dubé (Syndrome de) : Maladie autosomique dominante par mutation du gène de la folliculine (FLCN).
@@ -754,7 +778,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9ponymes_en_pneumologie</t>
+          <t>Liste_d'éponymes_en_pneumologie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -772,7 +796,9 @@
           <t>Instruments</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Eschmann (Mandrin d’) : Mandrin permettant une intubation orotrachéale.
 Dormia (Panier de) : Anse en panier pour endoscopie.
